--- a/templates/RSTK-9119_SYDATA-Loc Adjust.xlsx
+++ b/templates/RSTK-9119_SYDATA-Loc Adjust.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0213F6-450C-46C3-8613-63D8CC912591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9D2D8B-0070-4659-9598-2C773CA15379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB51E305-5BC0-4BB2-AE6B-CC4DBF74AF6A}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:M13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,16 +666,16 @@
         <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
